--- a/Planned activities.xlsx
+++ b/Planned activities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacki\Documents\GitHub\Modelon-Master-Thesis-LTH-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C083E8A7-AB01-442A-A9C1-21F4D2892326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C417C17-2659-45F9-A5A3-0B3E9B078ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1125" windowWidth="21600" windowHeight="13185" xr2:uid="{068A4C9E-19FF-4CFC-8CB7-15901A92FCA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{068A4C9E-19FF-4CFC-8CB7-15901A92FCA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Planned activities" sheetId="1" r:id="rId1"/>
@@ -386,66 +386,161 @@
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
+  <dxfs count="13">
     <dxf>
       <font>
-        <color theme="9" tint="-0.499984740745262"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color theme="4"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFC00000"/>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="238"/>
+        <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -517,391 +612,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="238"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -916,13 +626,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F12BB48-6D1C-41B3-987A-00AAB12A5EA7}" name="Tabela2" displayName="Tabela2" ref="C4:F45" totalsRowShown="0" headerRowDxfId="39" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5F12BB48-6D1C-41B3-987A-00AAB12A5EA7}" name="Tabela2" displayName="Tabela2" ref="C4:F45" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="C4:F45" xr:uid="{5F12BB48-6D1C-41B3-987A-00AAB12A5EA7}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{41807A06-D7FE-4EE6-BE4B-7E9BE69C9F9E}" name="Activity" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{DCA988D7-0CE8-45CC-8EF2-6D54FA80B232}" name="Subactivity" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{BD1CFDA5-DBCD-43F7-B71B-0A0B83F8F2F7}" name="Status" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{303CAF92-2552-42AE-A17A-ECFD832CAC38}" name="Comments" dataDxfId="37"/>
+    <tableColumn id="1" xr3:uid="{41807A06-D7FE-4EE6-BE4B-7E9BE69C9F9E}" name="Activity" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{DCA988D7-0CE8-45CC-8EF2-6D54FA80B232}" name="Subactivity" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{BD1CFDA5-DBCD-43F7-B71B-0A0B83F8F2F7}" name="Status" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{303CAF92-2552-42AE-A17A-ECFD832CAC38}" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1228,7 +938,7 @@
   <dimension ref="B4:AG78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1038,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <v>5.0999999999999996</v>
       </c>
@@ -1341,7 +1051,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>5.2</v>
       </c>
@@ -1354,7 +1064,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>6</v>
       </c>
@@ -1367,7 +1077,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>6.1</v>
       </c>
@@ -1380,7 +1090,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>6.2</v>
       </c>
@@ -1393,7 +1103,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8">
         <v>6.3</v>
       </c>
@@ -1406,7 +1116,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>6.4</v>
       </c>
@@ -1419,7 +1129,7 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>7</v>
       </c>
@@ -1432,7 +1142,7 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>7.1</v>
       </c>
@@ -1445,7 +1155,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>34</v>
       </c>
@@ -1458,7 +1168,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
         <v>35</v>
       </c>
@@ -1471,7 +1181,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8">
         <v>7.2</v>
       </c>
@@ -1484,7 +1194,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
         <v>7.3</v>
       </c>
@@ -1497,7 +1207,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>36</v>
       </c>
@@ -1510,7 +1220,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>37</v>
       </c>
@@ -1523,7 +1233,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>38</v>
       </c>
@@ -1536,7 +1246,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>39</v>
       </c>
@@ -1549,7 +1259,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>40</v>
       </c>
@@ -1562,7 +1272,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
         <v>7.4</v>
       </c>
@@ -1575,7 +1285,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>41</v>
       </c>
@@ -1588,7 +1298,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>42</v>
       </c>
@@ -1601,7 +1311,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>43</v>
       </c>
@@ -1614,7 +1324,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>44</v>
       </c>
@@ -1627,7 +1337,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
         <v>45</v>
       </c>
@@ -1640,7 +1350,7 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
         <v>7.5</v>
       </c>
@@ -1653,7 +1363,7 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>46</v>
       </c>
@@ -1666,7 +1376,7 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="2:6" ht="30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" ht="30" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9" t="s">
         <v>47</v>
       </c>
@@ -1679,7 +1389,7 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="2:6" ht="45" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" ht="45" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>48</v>
       </c>
@@ -1692,7 +1402,7 @@
       </c>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>49</v>
       </c>
@@ -1705,7 +1415,7 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>50</v>
       </c>
@@ -1718,7 +1428,7 @@
       </c>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9">
         <v>7.6</v>
       </c>
@@ -1731,7 +1441,7 @@
       </c>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>51</v>
       </c>
@@ -1744,7 +1454,7 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>52</v>
       </c>
@@ -1757,7 +1467,7 @@
       </c>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>53</v>
       </c>
@@ -1770,7 +1480,7 @@
       </c>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="2:6" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9">
         <v>7.7</v>
       </c>
@@ -1783,8 +1493,8 @@
       </c>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="2:6" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="9">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="8">
         <v>8</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -1824,22 +1534,22 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="E5:E45">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Waiting for comments"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"On going"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"On going "</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Not started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Waiting for comments not sent"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">

--- a/Planned activities.xlsx
+++ b/Planned activities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacki\Documents\GitHub\Modelon-Master-Thesis-LTH-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C417C17-2659-45F9-A5A3-0B3E9B078ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BD0A07-59F9-4D0D-9314-1748F779AFFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{068A4C9E-19FF-4CFC-8CB7-15901A92FCA6}"/>
   </bookViews>
@@ -218,9 +218,6 @@
     <t>Updated 16/11/2022</t>
   </si>
   <si>
-    <t>Setting up Github with all needed files</t>
-  </si>
-  <si>
     <t>GitHub</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>Waiting for comments not sent</t>
+  </si>
+  <si>
+    <t>Setting up Github with all files</t>
   </si>
 </sst>
 </file>
@@ -938,7 +938,7 @@
   <dimension ref="B4:AG78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1002,14 +1002,14 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>57</v>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -1164,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -1177,7 +1177,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -1518,12 +1518,12 @@
     </row>
     <row r="76" spans="33:33" x14ac:dyDescent="0.25">
       <c r="AG76" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="33:33" x14ac:dyDescent="0.25">
       <c r="AG77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="78" spans="33:33" x14ac:dyDescent="0.25">
